--- a/NewVersionmay2017/A_R calculation.xlsx
+++ b/NewVersionmay2017/A_R calculation.xlsx
@@ -9,10 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="p is 124" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="p is 134" sheetId="2" r:id="rId4"/>
+    <sheet name="different p 124" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,15 +65,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C = 1</t>
+    <t>hmmmmmm so that seems correct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C -1 = -2</t>
+    <t>C =- 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hmmmmmmmmmmmm</t>
+    <t>C - 0  = -1 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF424143"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +263,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,12 +596,45 @@
     <col min="2" max="8" width="4.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="15" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>5</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -524,8 +653,17 @@
       <c r="U2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -587,7 +725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -622,8 +760,14 @@
       <c r="U4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>12</v>
       </c>
@@ -649,11 +793,17 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="V5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>13</v>
       </c>
@@ -679,11 +829,14 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23</v>
       </c>
@@ -711,11 +864,20 @@
       <c r="S7" s="1">
         <v>-1</v>
       </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
       <c r="U7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -745,11 +907,14 @@
       <c r="S8" s="1">
         <v>-1</v>
       </c>
-      <c r="T8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
@@ -777,11 +942,20 @@
         <v>1</v>
       </c>
       <c r="S9" s="1"/>
+      <c r="T9">
+        <v>-1</v>
+      </c>
       <c r="U9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -810,19 +984,25 @@
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10">
-        <v>-1</v>
-      </c>
       <c r="U10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -846,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P16" s="4"/>
       <c r="Q16" s="3">
         <v>0</v>
@@ -980,26 +1160,2021 @@
         <v>7</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N26" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="14:22" x14ac:dyDescent="0.2">
       <c r="N27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>240</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>340</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>240</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>340</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>230</v>
+      </c>
+      <c r="D3">
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>340</v>
+      </c>
+      <c r="G3">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>124</v>
+      </c>
+      <c r="I3">
+        <v>234</v>
+      </c>
+      <c r="J3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>230</v>
+      </c>
+      <c r="D3">
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>340</v>
+      </c>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>234</v>
+      </c>
+      <c r="I3">
+        <v>134</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="14" width="3.375" customWidth="1"/>
+    <col min="15" max="15" width="3.875" customWidth="1"/>
+    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>125</v>
+      </c>
+      <c r="L2">
+        <v>134</v>
+      </c>
+      <c r="M2">
+        <v>145</v>
+      </c>
+      <c r="N2">
+        <v>234</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>135</v>
+      </c>
+      <c r="R2">
+        <v>124</v>
+      </c>
+      <c r="S2">
+        <v>345</v>
+      </c>
+      <c r="T2">
+        <v>235</v>
+      </c>
+      <c r="U2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="4.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>125</v>
+      </c>
+      <c r="L2">
+        <v>134</v>
+      </c>
+      <c r="M2">
+        <v>145</v>
+      </c>
+      <c r="N2">
+        <v>124</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>135</v>
+      </c>
+      <c r="R2">
+        <v>234</v>
+      </c>
+      <c r="S2">
+        <v>345</v>
+      </c>
+      <c r="T2">
+        <v>235</v>
+      </c>
+      <c r="U2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>45</v>
+      </c>
+      <c r="D1">
+        <v>23</v>
+      </c>
+      <c r="E1">
+        <v>24</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>34</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>125</v>
+      </c>
+      <c r="J1">
+        <v>134</v>
+      </c>
+      <c r="K1">
+        <v>145</v>
+      </c>
+      <c r="L1">
+        <v>234</v>
+      </c>
+      <c r="M1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewVersionmay2017/A_R calculation.xlsx
+++ b/NewVersionmay2017/A_R calculation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Documents\GitHub\MIformulation\NewVersionmay2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="p is 124" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="p is 134" sheetId="2" r:id="rId4"/>
     <sheet name="different p 124" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
+    <sheet name="upper triangular mi5" sheetId="6" r:id="rId6"/>
+    <sheet name="2 pivot mi5 example" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
@@ -1942,7 +1942,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:V15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2388,13 +2388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="10" width="3.5" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="4.5" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2436,10 +2439,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="E2">
         <v>23</v>
@@ -2460,16 +2463,16 @@
         <v>15</v>
       </c>
       <c r="K2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="L2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="M2">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="N2">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="O2">
         <v>12</v>
@@ -2481,16 +2484,16 @@
         <v>135</v>
       </c>
       <c r="R2">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="S2">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="T2">
         <v>235</v>
       </c>
       <c r="U2">
-        <v>245</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2509,13 +2512,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>-1</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <v>-1</v>
-      </c>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2532,27 +2531,19 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>-1</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2563,21 +2554,17 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
-        <v>45</v>
+      <c r="B6" s="6">
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2586,12 +2573,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2602,9 +2585,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2613,9 +2594,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2627,9 +2606,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2637,9 +2614,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>-1</v>
-      </c>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2652,20 +2627,14 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
-        <v>-1</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2679,19 +2648,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1">
-        <v>-1</v>
-      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2706,20 +2669,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>-1</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2735,26 +2690,18 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-1</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
-        <v>12</v>
+      <c r="B13" s="7">
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2764,21 +2711,17 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
-        <v>13</v>
+      <c r="B14" s="7">
+        <v>45</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2789,51 +2732,12 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="I15">
-        <v>50</v>
-      </c>
-      <c r="J15">
-        <v>40</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
+      <c r="L15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2845,14 +2749,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="14" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2863,37 +2768,37 @@
         <v>35</v>
       </c>
       <c r="C1">
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <v>24</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>34</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>13</v>
+      </c>
+      <c r="I1">
         <v>45</v>
       </c>
-      <c r="D1">
-        <v>23</v>
-      </c>
-      <c r="E1">
-        <v>24</v>
-      </c>
-      <c r="F1">
-        <v>25</v>
-      </c>
-      <c r="G1">
-        <v>34</v>
-      </c>
-      <c r="H1">
-        <v>14</v>
-      </c>
-      <c r="I1">
+      <c r="J1">
         <v>125</v>
       </c>
-      <c r="J1">
-        <v>134</v>
-      </c>
       <c r="K1">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="L1">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="M1">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2908,13 +2813,14 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
       <c r="L2" s="1">
         <v>-1</v>
       </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -2927,20 +2833,23 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>-1</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2948,23 +2857,21 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4">
-        <v>1</v>
+      <c r="M4" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2973,17 +2880,20 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>45</v>
+      <c r="A6">
+        <v>24</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2993,93 +2903,100 @@
       <c r="K6" s="1">
         <v>-1</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>23</v>
+      <c r="A7">
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>1</v>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>24</v>
+      <c r="A8">
+        <v>34</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>-1</v>
-      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>34</v>
+      <c r="A10">
+        <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>-1</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1">
-        <v>-1</v>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>14</v>
+      <c r="A11">
+        <v>45</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3087,17 +3004,14 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -3110,16 +3024,19 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3128,49 +3045,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>-1</v>
-      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
+      <c r="K14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NewVersionmay2017/A_R calculation.xlsx
+++ b/NewVersionmay2017/A_R calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="p is 124" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="upper triangular mi5" sheetId="6" r:id="rId6"/>
     <sheet name="2 pivot mi5 example" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId9"/>
+    <sheet name="basis" sheetId="9" r:id="rId10"/>
+    <sheet name="linearly dependent problem" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +154,151 @@
   <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4 5)</t>
+  </si>
+  <si>
+    <t>((3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((4</t>
+  </si>
+  <si>
+    <t>((3 5) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2 4) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 4) 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 5) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((3 4) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2 5) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 3) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((4 5) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2 3) 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 2) None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 3) 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 3) 5)</t>
+  </si>
+  <si>
+    <t>((3 5) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2 4) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 5) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((3 4) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2 5) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 3) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((4 5) -)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((1 2) -)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((2 3) -)</t>
   </si>
 </sst>
 </file>
@@ -248,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,6 +1338,1323 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
@@ -2749,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M13"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,7 +4273,9 @@
       <c r="A2" s="6">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3061,4 +4531,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v xml:space="preserve"> (1 2)</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C12" si="0">_xlfn.CONCAT(A4,B4)</f>
+        <v xml:space="preserve"> (1 3)</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (2 3)</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (1 4)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (2 4)</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (3 4)</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (1 5)</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (2 5)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (3 5)</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (4 5)</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT(A16,B16,C16)</f>
+        <v>((3 5) None)</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ref="E17:E27" si="1">_xlfn.CONCAT(A17,B17,C17)</f>
+        <v xml:space="preserve"> ((2 4) None)</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 4) 5)</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 5) None)</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((3 4) None)</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((2 5) None)</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 3) None)</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((4 5) None)</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((2 3) 4)</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 2) None)</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 3) 4)</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 3) 5)</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NewVersionmay2017/A_R calculation.xlsx
+++ b/NewVersionmay2017/A_R calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7365" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="p is 124" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="p is 134" sheetId="2" r:id="rId4"/>
     <sheet name="different p 124" sheetId="5" r:id="rId5"/>
     <sheet name="upper triangular mi5" sheetId="6" r:id="rId6"/>
-    <sheet name="2 pivot mi5 example" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId9"/>
-    <sheet name="basis" sheetId="9" r:id="rId10"/>
-    <sheet name="linearly dependent problem" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId8"/>
+    <sheet name="2 pivot mi5 example" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId11"/>
+    <sheet name="basis" sheetId="9" r:id="rId12"/>
+    <sheet name="linearly dependent problem" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="80">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +301,14 @@
   </si>
   <si>
     <t xml:space="preserve"> ((2 3) -)</t>
+  </si>
+  <si>
+    <t>E_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1340,6 +1350,731 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="14" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <v>24</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>34</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>45</v>
+      </c>
+      <c r="J1">
+        <v>125</v>
+      </c>
+      <c r="K1">
+        <v>234</v>
+      </c>
+      <c r="L1">
+        <v>124</v>
+      </c>
+      <c r="M1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v xml:space="preserve"> (1 2)</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C12" si="0">_xlfn.CONCAT(A4,B4)</f>
+        <v xml:space="preserve"> (1 3)</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (2 3)</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (1 4)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (2 4)</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (3 4)</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (1 5)</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (2 5)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (3 5)</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (4 5)</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT(A16,B16,C16)</f>
+        <v>((3 5) None)</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ref="E17:E27" si="1">_xlfn.CONCAT(A17,B17,C17)</f>
+        <v xml:space="preserve"> ((2 4) None)</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 4) 5)</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 5) None)</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((3 4) None)</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((2 5) None)</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 3) None)</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((4 5) None)</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((2 3) 4)</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 2) None)</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 3) 4)</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ((1 3) 5)</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2108,11 +2843,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -3410,7 +4145,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B1" sqref="B1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3853,6 +4588,1461 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>345</v>
+      </c>
+      <c r="K2">
+        <v>234</v>
+      </c>
+      <c r="L2">
+        <v>145</v>
+      </c>
+      <c r="M2">
+        <v>234</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="13" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>125</v>
+      </c>
+      <c r="K2">
+        <v>134</v>
+      </c>
+      <c r="L2">
+        <v>234</v>
+      </c>
+      <c r="M2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>145</v>
+      </c>
+      <c r="J18">
+        <v>125</v>
+      </c>
+      <c r="K18">
+        <v>134</v>
+      </c>
+      <c r="L18">
+        <v>234</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>45</v>
+      </c>
+      <c r="H35">
+        <v>134</v>
+      </c>
+      <c r="I35">
+        <v>125</v>
+      </c>
+      <c r="J35">
+        <v>234</v>
+      </c>
+      <c r="K35">
+        <v>145</v>
+      </c>
+      <c r="L35">
+        <v>120</v>
+      </c>
+      <c r="M35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>350</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>23</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>45</v>
+      </c>
+      <c r="I54">
+        <v>134</v>
+      </c>
+      <c r="J54">
+        <v>125</v>
+      </c>
+      <c r="K54">
+        <v>234</v>
+      </c>
+      <c r="L54">
+        <v>145</v>
+      </c>
+      <c r="M54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>35</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>34</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>23</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
@@ -4211,729 +6401,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="14" width="4.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1">
-        <v>35</v>
-      </c>
-      <c r="C1">
-        <v>14</v>
-      </c>
-      <c r="D1">
-        <v>24</v>
-      </c>
-      <c r="E1">
-        <v>15</v>
-      </c>
-      <c r="F1">
-        <v>34</v>
-      </c>
-      <c r="G1">
-        <v>25</v>
-      </c>
-      <c r="H1">
-        <v>13</v>
-      </c>
-      <c r="I1">
-        <v>45</v>
-      </c>
-      <c r="J1">
-        <v>125</v>
-      </c>
-      <c r="K1">
-        <v>234</v>
-      </c>
-      <c r="L1">
-        <v>124</v>
-      </c>
-      <c r="M1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K14" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>4</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="str">
-        <f>_xlfn.CONCAT(A3,B3)</f>
-        <v xml:space="preserve"> (1 2)</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C12" si="0">_xlfn.CONCAT(A4,B4)</f>
-        <v xml:space="preserve"> (1 3)</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (2 3)</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (1 4)</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (2 4)</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (3 4)</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (1 5)</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (2 5)</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (3 5)</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (4 5)</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="str">
-        <f>_xlfn.CONCAT(A16,B16,C16)</f>
-        <v>((3 5) None)</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ref="E17:E27" si="1">_xlfn.CONCAT(A17,B17,C17)</f>
-        <v xml:space="preserve"> ((2 4) None)</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((1 4) 5)</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((1 5) None)</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((3 4) None)</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((2 5) None)</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((1 3) None)</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((4 5) None)</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((2 3) 4)</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((1 2) None)</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((1 3) 4)</v>
-      </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ((1 3) 5)</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>